--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>433.42984892554279</v>
+        <v>433.42984893646224</v>
       </c>
       <c r="C2">
-        <v>402.41645883112631</v>
+        <v>402.41645884215899</v>
       </c>
       <c r="D2">
-        <v>361.60425306459928</v>
+        <v>361.60425309152248</v>
       </c>
       <c r="E2">
-        <v>396.45344185942281</v>
+        <v>396.45344186841766</v>
       </c>
       <c r="F2">
-        <v>396.17035827151892</v>
+        <v>396.17035827880028</v>
       </c>
       <c r="G2">
-        <v>409.95550007721937</v>
+        <v>409.95550007408843</v>
       </c>
       <c r="H2">
-        <v>425.69848100214961</v>
+        <v>425.69848101721647</v>
       </c>
       <c r="I2">
-        <v>466.73956379354132</v>
+        <v>466.73956378373316</v>
       </c>
       <c r="J2">
-        <v>404.06275620679725</v>
+        <v>404.06275622850836</v>
       </c>
       <c r="K2">
-        <v>422.13999812354496</v>
+        <v>422.13999811377136</v>
       </c>
       <c r="L2">
-        <v>446.94249065502544</v>
+        <v>446.94249066376773</v>
       </c>
       <c r="N2">
-        <v>456.22557565070201</v>
+        <v>456.22557565124072</v>
       </c>
       <c r="O2">
-        <v>387.23121103439058</v>
+        <v>387.23121106058704</v>
       </c>
       <c r="P2">
-        <v>410.81044976796306</v>
+        <v>410.81044977713327</v>
       </c>
       <c r="Q2">
-        <v>473.65803507681079</v>
+        <v>473.65803511086426</v>
       </c>
       <c r="S2">
-        <v>445.66387939666629</v>
+        <v>445.66387955752805</v>
       </c>
       <c r="V2">
-        <v>475.15012000685078</v>
+        <v>475.15012003998248</v>
       </c>
       <c r="W2">
-        <v>451.05382105510057</v>
+        <v>451.05382107387845</v>
       </c>
       <c r="X2">
-        <v>379.42045354142783</v>
+        <v>379.42045356138118</v>
       </c>
       <c r="AA2">
-        <v>427.16191558510138</v>
+        <v>427.1619156176389</v>
       </c>
       <c r="AB2">
-        <v>395.9365619620911</v>
+        <v>395.93656202167597</v>
       </c>
       <c r="AC2">
-        <v>365.09674086949781</v>
+        <v>365.09674086820411</v>
       </c>
       <c r="AD2">
-        <v>392.59612513338863</v>
+        <v>392.59612520047739</v>
       </c>
       <c r="AE2">
-        <v>390.04678207873394</v>
+        <v>390.046782080968</v>
       </c>
       <c r="AF2">
-        <v>406.74504827414916</v>
+        <v>406.74504827966854</v>
       </c>
       <c r="AG2">
-        <v>421.88036505746976</v>
+        <v>421.88036508789378</v>
       </c>
       <c r="AH2">
-        <v>463.15801869260633</v>
+        <v>463.15801873809681</v>
       </c>
       <c r="AI2">
-        <v>396.00022091585424</v>
+        <v>396.00022098218619</v>
       </c>
       <c r="AJ2">
-        <v>422.52624562112089</v>
+        <v>422.52624563315464</v>
       </c>
       <c r="AK2">
-        <v>441.7936797960723</v>
+        <v>441.79367982524468</v>
       </c>
       <c r="AL2">
-        <v>442.02055345668794</v>
+        <v>442.0205534872394</v>
       </c>
       <c r="AM2">
-        <v>454.71612708427102</v>
+        <v>454.71612714123523</v>
       </c>
       <c r="AN2">
-        <v>383.75522266037501</v>
+        <v>383.75522269592864</v>
       </c>
       <c r="AO2">
-        <v>403.88597644285414</v>
+        <v>403.88597649486945</v>
       </c>
       <c r="AQ2">
-        <v>460.83594572371317</v>
+        <v>460.83594577259345</v>
       </c>
       <c r="AR2">
-        <v>444.91653906356629</v>
+        <v>444.91653904554823</v>
       </c>
       <c r="AS2">
-        <v>465.48117205900002</v>
+        <v>465.48117211601289</v>
       </c>
       <c r="AU2">
-        <v>467.95515309905028</v>
+        <v>467.95515312677099</v>
       </c>
       <c r="AV2">
-        <v>442.80344480283202</v>
+        <v>442.80344486848196</v>
       </c>
       <c r="AW2">
-        <v>380.44766012701211</v>
+        <v>380.44766016711503</v>
       </c>
       <c r="AX2">
-        <v>363.93940359135809</v>
+        <v>363.939403616947</v>
       </c>
       <c r="AY2">
-        <v>375.9623993287027</v>
+        <v>375.96239937638296</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>430.78178149103235</v>
+        <v>430.78178151965324</v>
       </c>
       <c r="C3">
-        <v>414.46255380972974</v>
+        <v>414.46255384167353</v>
       </c>
       <c r="E3">
-        <v>402.97171446445276</v>
+        <v>402.97171448026796</v>
       </c>
       <c r="F3">
-        <v>398.33947490929631</v>
+        <v>398.33947492988642</v>
       </c>
       <c r="G3">
-        <v>398.12783891155584</v>
+        <v>398.12783893053711</v>
       </c>
       <c r="H3">
-        <v>424.15597696365842</v>
+        <v>424.15597697234512</v>
       </c>
       <c r="J3">
-        <v>403.22439168742085</v>
+        <v>403.22439174184598</v>
       </c>
       <c r="K3">
-        <v>409.91564301733212</v>
+        <v>409.91564303553707</v>
       </c>
       <c r="L3">
-        <v>443.9558710800718</v>
+        <v>443.95587111602885</v>
       </c>
       <c r="M3">
-        <v>439.89977145685185</v>
+        <v>439.89989818130755</v>
       </c>
       <c r="N3">
-        <v>461.94533105941042</v>
+        <v>461.94533108605435</v>
       </c>
       <c r="P3">
-        <v>413.42130742200294</v>
+        <v>413.42130747833477</v>
       </c>
       <c r="Q3">
-        <v>479.94680768314083</v>
+        <v>479.94680770808804</v>
       </c>
       <c r="R3">
-        <v>472.93367103559376</v>
+        <v>472.93367109420029</v>
       </c>
       <c r="W3">
-        <v>439.38290919553663</v>
+        <v>439.38290924230932</v>
       </c>
       <c r="AA3">
-        <v>427.21107859088403</v>
+        <v>427.2110786336674</v>
       </c>
       <c r="AB3">
-        <v>405.95481004609735</v>
+        <v>405.95481008219383</v>
       </c>
       <c r="AC3">
-        <v>349.8358358180659</v>
+        <v>349.83583582691722</v>
       </c>
       <c r="AD3">
-        <v>393.95865285794315</v>
+        <v>393.95865288443298</v>
       </c>
       <c r="AE3">
-        <v>388.61478804038074</v>
+        <v>388.61478804973297</v>
       </c>
       <c r="AF3">
-        <v>395.62528181437352</v>
+        <v>395.62528184077706</v>
       </c>
       <c r="AG3">
-        <v>416.44250301273689</v>
+        <v>416.44250304974025</v>
       </c>
       <c r="AH3">
-        <v>454.92196491496532</v>
+        <v>454.92196495924725</v>
       </c>
       <c r="AI3">
-        <v>383.33960356616069</v>
+        <v>383.33960357103672</v>
       </c>
       <c r="AJ3">
-        <v>416.76315104593124</v>
+        <v>416.76315108332091</v>
       </c>
       <c r="AK3">
-        <v>436.92316573350553</v>
+        <v>436.92316576190876</v>
       </c>
       <c r="AL3">
-        <v>438.59646188579813</v>
+        <v>438.5964619387413</v>
       </c>
       <c r="AM3">
-        <v>455.65287178604183</v>
+        <v>455.6528718572132</v>
       </c>
       <c r="AN3">
-        <v>390.93207632464066</v>
+        <v>390.93207635271216</v>
       </c>
       <c r="AO3">
-        <v>407.81187012060144</v>
+        <v>407.81187014318942</v>
       </c>
       <c r="AP3">
-        <v>477.97445326849731</v>
+        <v>477.97445330252845</v>
       </c>
       <c r="AQ3">
-        <v>466.26816981297458</v>
+        <v>466.26816984635104</v>
       </c>
       <c r="AS3">
-        <v>469.41946602042708</v>
+        <v>469.41946602994375</v>
       </c>
       <c r="AT3">
-        <v>367.06191182902143</v>
+        <v>367.06191186711845</v>
       </c>
       <c r="AU3">
-        <v>468.22532803173766</v>
+        <v>468.22532804164587</v>
       </c>
       <c r="AV3">
-        <v>439.14117018207202</v>
+        <v>439.14117021207261</v>
       </c>
       <c r="AW3">
-        <v>380.71731429962085</v>
+        <v>380.71731433120226</v>
       </c>
       <c r="AX3">
-        <v>371.34184505618191</v>
+        <v>371.34184509061589</v>
       </c>
       <c r="AY3">
-        <v>372.7593073793779</v>
+        <v>372.75930742263773</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>433.42984893646224</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>402.41645884215899</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>361.60425309152248</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>396.45344186841766</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>396.17035827880028</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>409.95550007408843</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>425.69848101721647</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>466.73956378373316</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>404.06275622850836</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>422.13999811377136</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>446.94249066376773</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>456.22557565124072</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>387.23121106058704</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>410.81044977713327</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>473.65803511086426</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>445.66387955752805</v>
+        <v>453.83291438818742</v>
       </c>
       <c r="V2">
         <v>475.15012003998248</v>
@@ -570,52 +465,55 @@
         <v>379.42045356138118</v>
       </c>
       <c r="AA2">
-        <v>427.1619156176389</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>395.93656202167597</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>365.09674086820411</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>392.59612520047739</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>390.046782080968</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>406.74504827966854</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>421.88036508789378</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>463.15801873809681</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>396.00022098218619</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>422.52624563315464</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>441.79367982524468</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>442.0205534872394</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>454.71612714123523</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>383.75522269592864</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>403.88597649486945</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>460.83594577259345</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>444.91653904554823</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>430.78178151965324</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>414.46255384167353</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>402.97171448026796</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>398.33947492988642</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>398.12783893053711</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>424.15597697234512</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>403.22439174184598</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>409.91564303553707</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>443.95587111602885</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>439.89989818130755</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>461.94533108605435</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>413.42130747833477</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>479.94680770808804</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>472.93367109420029</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>439.38290924230932</v>
       </c>
       <c r="AA3">
-        <v>427.2110786336674</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>405.95481008219383</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>349.83583582691722</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>393.95865288443298</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>388.61478804973297</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>395.62528184077706</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>416.44250304974025</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>454.92196495924725</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>383.33960357103672</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>416.76315108332091</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>436.92316576190876</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>438.5964619387413</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>455.6528718572132</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>390.93207635271216</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>407.81187014318942</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>477.97445330252845</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>466.26816984635104</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>469.41946602994375</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>433.42984892554279</v>
-      </c>
-      <c r="C2">
-        <v>404.80216584154283</v>
+        <v>387.23121106058704</v>
       </c>
       <c r="D2">
-        <v>361.60425306459928</v>
+        <v>383.75522269592864</v>
       </c>
       <c r="E2">
-        <v>396.45344185942281</v>
+        <v>460.83594577259345</v>
       </c>
       <c r="F2">
         <v>396.17035827151892</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>430.78178149103235</v>
-      </c>
       <c r="C3">
-        <v>414.46255380972974</v>
+        <v>472.93367109420029</v>
+      </c>
+      <c r="D3">
+        <v>390.10320212892782</v>
       </c>
       <c r="E3">
-        <v>402.97171446445276</v>
+        <v>465.36675872137505</v>
       </c>
       <c r="F3">
         <v>398.33947490929631</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>433.42984892554279</v>
+        <v>457.17153048178636</v>
       </c>
       <c r="C2">
-        <v>404.80216584154283</v>
+        <v>387.23121106058704</v>
       </c>
       <c r="D2">
-        <v>361.60425306459928</v>
+        <v>454.71612714123523</v>
       </c>
       <c r="E2">
-        <v>396.45344185942281</v>
+        <v>383.75522269592864</v>
       </c>
       <c r="F2">
         <v>396.17035827151892</v>
@@ -646,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>430.78178149103235</v>
-      </c>
-      <c r="C3">
-        <v>414.46255380972974</v>
+        <v>461.94533108605435</v>
+      </c>
+      <c r="D3">
+        <v>455.6528718572132</v>
       </c>
       <c r="E3">
-        <v>397.25472546970946</v>
+        <v>390.10320212892782</v>
       </c>
       <c r="F3">
         <v>398.33947490929631</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>433.42984893646224</v>
+      </c>
+      <c r="C2">
+        <v>404.80216585020031</v>
+      </c>
+      <c r="D2">
+        <v>361.60425309152248</v>
+      </c>
+      <c r="E2">
+        <v>396.45344186841766</v>
+      </c>
+      <c r="F2">
+        <v>396.17035827880028</v>
+      </c>
+      <c r="G2">
+        <v>406.25743001176602</v>
+      </c>
+      <c r="H2">
+        <v>425.69848101721647</v>
+      </c>
+      <c r="I2">
+        <v>462.82116515269013</v>
+      </c>
+      <c r="J2">
+        <v>404.06275622850836</v>
+      </c>
+      <c r="K2">
+        <v>422.13999811377136</v>
+      </c>
+      <c r="L2">
+        <v>446.73707372717649</v>
+      </c>
+      <c r="N2">
         <v>457.17153048178636</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>387.23121106058704</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>409.4502176194344</v>
+      </c>
+      <c r="Q2">
+        <v>473.65803511086426</v>
+      </c>
+      <c r="V2">
+        <v>472.26186457034419</v>
+      </c>
+      <c r="W2">
+        <v>451.05382107387845</v>
+      </c>
+      <c r="X2">
+        <v>379.42045356138118</v>
+      </c>
+      <c r="AA2">
+        <v>427.1619156176389</v>
+      </c>
+      <c r="AB2">
+        <v>395.93656202167597</v>
+      </c>
+      <c r="AC2">
+        <v>365.09674086820411</v>
+      </c>
+      <c r="AD2">
+        <v>392.59612520047739</v>
+      </c>
+      <c r="AE2">
+        <v>390.046782080968</v>
+      </c>
+      <c r="AF2">
+        <v>406.74504827966854</v>
+      </c>
+      <c r="AG2">
+        <v>421.88036508789378</v>
+      </c>
+      <c r="AH2">
+        <v>463.15801873809681</v>
+      </c>
+      <c r="AI2">
+        <v>396.00022098218619</v>
+      </c>
+      <c r="AJ2">
+        <v>422.52624563315464</v>
+      </c>
+      <c r="AK2">
+        <v>441.79367982524468</v>
+      </c>
+      <c r="AL2">
+        <v>442.0205534872394</v>
+      </c>
+      <c r="AM2">
         <v>454.71612714123523</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>383.75522269592864</v>
       </c>
-      <c r="F2">
-        <v>396.17035827151892</v>
-      </c>
-      <c r="G2">
-        <v>406.25743001384211</v>
-      </c>
-      <c r="H2">
-        <v>425.69848100214961</v>
-      </c>
-      <c r="I2">
-        <v>462.82116516819963</v>
-      </c>
-      <c r="J2">
-        <v>404.06275620679725</v>
-      </c>
-      <c r="K2">
-        <v>422.13999812354496</v>
-      </c>
-      <c r="L2">
-        <v>446.73707371065564</v>
-      </c>
-      <c r="N2">
-        <v>457.17153047647281</v>
-      </c>
-      <c r="O2">
-        <v>387.23121103439058</v>
-      </c>
-      <c r="P2">
-        <v>409.45021761721983</v>
-      </c>
-      <c r="Q2">
-        <v>473.65803507681079</v>
-      </c>
-      <c r="V2">
-        <v>472.26186452221032</v>
-      </c>
-      <c r="W2">
-        <v>451.05382105510057</v>
-      </c>
-      <c r="X2">
-        <v>379.42045354142783</v>
-      </c>
-      <c r="AA2">
-        <v>427.16191558510138</v>
-      </c>
-      <c r="AB2">
-        <v>395.9365619620911</v>
-      </c>
-      <c r="AC2">
-        <v>365.09674086949781</v>
-      </c>
-      <c r="AD2">
-        <v>392.59612513338863</v>
-      </c>
-      <c r="AE2">
-        <v>390.04678207873394</v>
-      </c>
-      <c r="AF2">
-        <v>406.74504827414916</v>
-      </c>
-      <c r="AG2">
-        <v>421.88036505746976</v>
-      </c>
-      <c r="AH2">
-        <v>463.15801869260633</v>
-      </c>
-      <c r="AI2">
-        <v>396.00022091585424</v>
-      </c>
-      <c r="AJ2">
-        <v>422.52624562112089</v>
-      </c>
-      <c r="AK2">
-        <v>441.7936797960723</v>
-      </c>
-      <c r="AL2">
-        <v>442.02055345668794</v>
-      </c>
-      <c r="AM2">
-        <v>454.71612708427102</v>
-      </c>
-      <c r="AN2">
-        <v>383.75522266037501</v>
-      </c>
       <c r="AO2">
-        <v>403.88597644285414</v>
+        <v>403.88597649486945</v>
       </c>
       <c r="AQ2">
-        <v>460.83594572371317</v>
+        <v>460.83594577259345</v>
       </c>
       <c r="AR2">
-        <v>444.91653906356629</v>
+        <v>444.91653904554823</v>
       </c>
       <c r="AS2">
-        <v>465.48117205900002</v>
+        <v>465.48117211601289</v>
       </c>
       <c r="AU2">
-        <v>473.62448849472139</v>
+        <v>473.62448853381773</v>
       </c>
       <c r="AV2">
-        <v>442.80344480283202</v>
+        <v>442.80344486848196</v>
       </c>
       <c r="AW2">
-        <v>380.44766012701211</v>
+        <v>380.44766016711503</v>
       </c>
       <c r="AX2">
-        <v>363.93940359135809</v>
+        <v>363.939403616947</v>
       </c>
       <c r="AY2">
-        <v>375.9623993287027</v>
+        <v>375.96239937638296</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -641,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>430.78178151965324</v>
+      </c>
+      <c r="C3">
+        <v>414.46255384167353</v>
+      </c>
+      <c r="E3">
+        <v>397.25472546526237</v>
+      </c>
+      <c r="F3">
+        <v>398.33947492988642</v>
+      </c>
+      <c r="G3">
+        <v>398.12783893053711</v>
+      </c>
+      <c r="H3">
+        <v>424.15597697234512</v>
+      </c>
+      <c r="J3">
+        <v>403.22439174184598</v>
+      </c>
+      <c r="K3">
+        <v>411.05581804048006</v>
+      </c>
+      <c r="L3">
+        <v>443.95587111602885</v>
+      </c>
+      <c r="M3">
+        <v>443.67184972323275</v>
+      </c>
+      <c r="N3">
         <v>461.94533108605435</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>413.42130747833477</v>
+      </c>
+      <c r="Q3">
+        <v>479.94680770808804</v>
+      </c>
+      <c r="R3">
+        <v>472.93367109420029</v>
+      </c>
+      <c r="W3">
+        <v>439.38290924230932</v>
+      </c>
+      <c r="AA3">
+        <v>427.2110786336674</v>
+      </c>
+      <c r="AB3">
+        <v>405.95481008219383</v>
+      </c>
+      <c r="AC3">
+        <v>349.83583582691722</v>
+      </c>
+      <c r="AD3">
+        <v>393.95865288443298</v>
+      </c>
+      <c r="AE3">
+        <v>388.61478804973297</v>
+      </c>
+      <c r="AF3">
+        <v>395.62528184077706</v>
+      </c>
+      <c r="AG3">
+        <v>416.44250304974025</v>
+      </c>
+      <c r="AH3">
+        <v>454.92196495924725</v>
+      </c>
+      <c r="AI3">
+        <v>406.6601642944326</v>
+      </c>
+      <c r="AJ3">
+        <v>416.76315108332091</v>
+      </c>
+      <c r="AK3">
+        <v>436.92316576190876</v>
+      </c>
+      <c r="AL3">
+        <v>438.5964619387413</v>
+      </c>
+      <c r="AM3">
         <v>455.6528718572132</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>390.10320212892782</v>
       </c>
-      <c r="F3">
-        <v>398.33947490929631</v>
-      </c>
-      <c r="G3">
-        <v>398.12783891155584</v>
-      </c>
-      <c r="H3">
-        <v>424.15597696365842</v>
-      </c>
-      <c r="J3">
-        <v>403.22439168742085</v>
-      </c>
-      <c r="K3">
-        <v>411.05581801968151</v>
-      </c>
-      <c r="L3">
-        <v>443.9558710800718</v>
-      </c>
-      <c r="M3">
-        <v>443.67196897027094</v>
-      </c>
-      <c r="N3">
-        <v>461.94533105941042</v>
-      </c>
-      <c r="P3">
-        <v>413.42130742200294</v>
-      </c>
-      <c r="Q3">
-        <v>479.94680768314083</v>
-      </c>
-      <c r="R3">
-        <v>472.93367103559376</v>
-      </c>
-      <c r="W3">
-        <v>439.38290919553663</v>
-      </c>
-      <c r="AA3">
-        <v>427.21107859088403</v>
-      </c>
-      <c r="AB3">
-        <v>405.95481004609735</v>
-      </c>
-      <c r="AC3">
-        <v>349.8358358180659</v>
-      </c>
-      <c r="AD3">
-        <v>393.95865285794315</v>
-      </c>
-      <c r="AE3">
-        <v>388.61478804038074</v>
-      </c>
-      <c r="AF3">
-        <v>395.62528181437352</v>
-      </c>
-      <c r="AG3">
-        <v>416.44250301273689</v>
-      </c>
-      <c r="AH3">
-        <v>454.92196491496532</v>
-      </c>
-      <c r="AI3">
-        <v>406.66016423565424</v>
-      </c>
-      <c r="AJ3">
-        <v>416.76315104593124</v>
-      </c>
-      <c r="AK3">
-        <v>436.92316573350553</v>
-      </c>
-      <c r="AL3">
-        <v>438.59646188579813</v>
-      </c>
-      <c r="AM3">
-        <v>455.65287178604183</v>
-      </c>
-      <c r="AN3">
-        <v>390.10320209872708</v>
-      </c>
       <c r="AO3">
-        <v>407.81187012060144</v>
+        <v>407.81187014318942</v>
       </c>
       <c r="AP3">
-        <v>477.97445326849731</v>
+        <v>477.97445330252845</v>
       </c>
       <c r="AQ3">
-        <v>465.36675870724366</v>
+        <v>465.36675872137505</v>
       </c>
       <c r="AS3">
-        <v>469.41946602042708</v>
+        <v>469.41946602994375</v>
       </c>
       <c r="AT3">
-        <v>367.06191182902143</v>
+        <v>367.06191186711845</v>
       </c>
       <c r="AU3">
-        <v>467.24332470431233</v>
+        <v>467.24332471612615</v>
       </c>
       <c r="AV3">
-        <v>439.14117018207202</v>
+        <v>439.14117021207261</v>
       </c>
       <c r="AW3">
-        <v>380.71731429962085</v>
+        <v>380.71731433120226</v>
       </c>
       <c r="AX3">
-        <v>371.34184505618191</v>
+        <v>371.34184509061589</v>
       </c>
       <c r="AY3">
-        <v>372.7593073793779</v>
+        <v>372.75930742263773</v>
       </c>
     </row>
   </sheetData>
